--- a/data/2020-07-13/indiana.xlsx
+++ b/data/2020-07-13/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45721</v>
+        <v>44802</v>
       </c>
       <c r="C2" t="n">
-        <v>3913</v>
+        <v>3840</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.02</v>
+        <v>7.93</v>
       </c>
       <c r="F2" t="n">
-        <v>7.52</v>
+        <v>7.44</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87200</v>
+        <v>85970</v>
       </c>
       <c r="C3" t="n">
-        <v>8720</v>
+        <v>8609</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.29</v>
+        <v>15.23</v>
       </c>
       <c r="F3" t="n">
-        <v>16.76</v>
+        <v>16.68</v>
       </c>
       <c r="G3" t="n">
         <v>0.31</v>
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88609</v>
+        <v>87684</v>
       </c>
       <c r="C4" t="n">
-        <v>8301</v>
+        <v>8244</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -475,7 +475,7 @@
         <v>15.53</v>
       </c>
       <c r="F4" t="n">
-        <v>15.95</v>
+        <v>15.97</v>
       </c>
       <c r="G4" t="n">
         <v>0.7</v>
@@ -488,19 +488,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86045</v>
+        <v>85290</v>
       </c>
       <c r="C5" t="n">
-        <v>8599</v>
+        <v>8536</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>15.08</v>
+        <v>15.11</v>
       </c>
       <c r="F5" t="n">
-        <v>16.52</v>
+        <v>16.54</v>
       </c>
       <c r="G5" t="n">
         <v>1.79</v>
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92946</v>
+        <v>92139</v>
       </c>
       <c r="C6" t="n">
-        <v>8055</v>
+        <v>7998</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
       </c>
       <c r="E6" t="n">
-        <v>16.29</v>
+        <v>16.32</v>
       </c>
       <c r="F6" t="n">
-        <v>15.48</v>
+        <v>15.5</v>
       </c>
       <c r="G6" t="n">
         <v>5.1</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81697</v>
+        <v>81088</v>
       </c>
       <c r="C7" t="n">
-        <v>6192</v>
+        <v>6151</v>
       </c>
       <c r="D7" t="n">
         <v>407</v>
       </c>
       <c r="E7" t="n">
-        <v>14.32</v>
+        <v>14.36</v>
       </c>
       <c r="F7" t="n">
-        <v>11.9</v>
+        <v>11.92</v>
       </c>
       <c r="G7" t="n">
-        <v>15.84</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51297</v>
+        <v>50947</v>
       </c>
       <c r="C8" t="n">
-        <v>3896</v>
+        <v>3880</v>
       </c>
       <c r="D8" t="n">
         <v>627</v>
       </c>
       <c r="E8" t="n">
-        <v>8.99</v>
+        <v>9.02</v>
       </c>
       <c r="F8" t="n">
-        <v>7.49</v>
+        <v>7.52</v>
       </c>
       <c r="G8" t="n">
-        <v>24.41</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33621</v>
+        <v>33456</v>
       </c>
       <c r="C9" t="n">
-        <v>4329</v>
+        <v>4322</v>
       </c>
       <c r="D9" t="n">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E9" t="n">
-        <v>5.89</v>
+        <v>5.93</v>
       </c>
       <c r="F9" t="n">
-        <v>8.32</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>51.77</v>
+        <v>51.73</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327212</v>
+        <v>324072</v>
       </c>
       <c r="C2" t="n">
-        <v>27182</v>
+        <v>26952</v>
       </c>
       <c r="D2" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E2" t="n">
-        <v>57.36</v>
+        <v>57.39</v>
       </c>
       <c r="F2" t="n">
-        <v>52.24</v>
+        <v>52.22</v>
       </c>
       <c r="G2" t="n">
         <v>48.77</v>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231625</v>
+        <v>229032</v>
       </c>
       <c r="C3" t="n">
-        <v>23942</v>
+        <v>23749</v>
       </c>
       <c r="D3" t="n">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E3" t="n">
-        <v>40.61</v>
+        <v>40.56</v>
       </c>
       <c r="F3" t="n">
         <v>46.01</v>
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11572</v>
+        <v>11543</v>
       </c>
       <c r="C4" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4869</v>
+        <v>4767</v>
       </c>
       <c r="C2" t="n">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F2" t="n">
         <v>1.43</v>
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50565</v>
+        <v>49068</v>
       </c>
       <c r="C3" t="n">
-        <v>6202</v>
+        <v>6099</v>
       </c>
       <c r="D3" t="n">
         <v>370</v>
       </c>
       <c r="E3" t="n">
-        <v>8.859999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="F3" t="n">
-        <v>11.92</v>
+        <v>11.82</v>
       </c>
       <c r="G3" t="n">
-        <v>14.4</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79031</v>
+        <v>76323</v>
       </c>
       <c r="C4" t="n">
-        <v>9148</v>
+        <v>8989</v>
       </c>
       <c r="D4" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" t="n">
-        <v>13.86</v>
+        <v>13.52</v>
       </c>
       <c r="F4" t="n">
-        <v>17.58</v>
+        <v>17.42</v>
       </c>
       <c r="G4" t="n">
-        <v>13.16</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100722</v>
+        <v>110803</v>
       </c>
       <c r="C5" t="n">
-        <v>11775</v>
+        <v>12292</v>
       </c>
       <c r="D5" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E5" t="n">
-        <v>17.66</v>
+        <v>19.62</v>
       </c>
       <c r="F5" t="n">
-        <v>22.63</v>
+        <v>23.82</v>
       </c>
       <c r="G5" t="n">
-        <v>6.97</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335222</v>
+        <v>323686</v>
       </c>
       <c r="C6" t="n">
-        <v>24168</v>
+        <v>23494</v>
       </c>
       <c r="D6" t="n">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="E6" t="n">
-        <v>58.77</v>
+        <v>57.33</v>
       </c>
       <c r="F6" t="n">
-        <v>46.44</v>
+        <v>45.52</v>
       </c>
       <c r="G6" t="n">
-        <v>64.97</v>
+        <v>64.73999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18757</v>
+        <v>18617</v>
       </c>
       <c r="C2" t="n">
-        <v>5827</v>
+        <v>5805</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
-        <v>11.2</v>
+        <v>11.25</v>
       </c>
       <c r="G2" t="n">
         <v>1.99</v>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218089</v>
+        <v>215148</v>
       </c>
       <c r="C3" t="n">
-        <v>17435</v>
+        <v>17255</v>
       </c>
       <c r="D3" t="n">
         <v>1357</v>
       </c>
       <c r="E3" t="n">
-        <v>38.23</v>
+        <v>38.1</v>
       </c>
       <c r="F3" t="n">
-        <v>33.51</v>
+        <v>33.43</v>
       </c>
       <c r="G3" t="n">
-        <v>52.82</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333563</v>
+        <v>330882</v>
       </c>
       <c r="C4" t="n">
-        <v>28775</v>
+        <v>28552</v>
       </c>
       <c r="D4" t="n">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" t="n">
-        <v>58.48</v>
+        <v>58.6</v>
       </c>
       <c r="F4" t="n">
-        <v>55.3</v>
+        <v>55.32</v>
       </c>
       <c r="G4" t="n">
-        <v>45.19</v>
+        <v>45.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020-07-13/indiana.xlsx
+++ b/data/2020-07-13/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44802</v>
+        <v>45721</v>
       </c>
       <c r="C2" t="n">
-        <v>3840</v>
+        <v>3913</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>7.93</v>
+        <v>8.02</v>
       </c>
       <c r="F2" t="n">
-        <v>7.44</v>
+        <v>7.52</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85970</v>
+        <v>87200</v>
       </c>
       <c r="C3" t="n">
-        <v>8609</v>
+        <v>8720</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.23</v>
+        <v>15.29</v>
       </c>
       <c r="F3" t="n">
-        <v>16.68</v>
+        <v>16.76</v>
       </c>
       <c r="G3" t="n">
         <v>0.31</v>
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87684</v>
+        <v>88609</v>
       </c>
       <c r="C4" t="n">
-        <v>8244</v>
+        <v>8301</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -475,7 +475,7 @@
         <v>15.53</v>
       </c>
       <c r="F4" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
       <c r="G4" t="n">
         <v>0.7</v>
@@ -488,19 +488,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85290</v>
+        <v>86045</v>
       </c>
       <c r="C5" t="n">
-        <v>8536</v>
+        <v>8599</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>15.11</v>
+        <v>15.08</v>
       </c>
       <c r="F5" t="n">
-        <v>16.54</v>
+        <v>16.52</v>
       </c>
       <c r="G5" t="n">
         <v>1.79</v>
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92139</v>
+        <v>92946</v>
       </c>
       <c r="C6" t="n">
-        <v>7998</v>
+        <v>8055</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
       </c>
       <c r="E6" t="n">
-        <v>16.32</v>
+        <v>16.29</v>
       </c>
       <c r="F6" t="n">
-        <v>15.5</v>
+        <v>15.48</v>
       </c>
       <c r="G6" t="n">
         <v>5.1</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81088</v>
+        <v>81697</v>
       </c>
       <c r="C7" t="n">
-        <v>6151</v>
+        <v>6192</v>
       </c>
       <c r="D7" t="n">
         <v>407</v>
       </c>
       <c r="E7" t="n">
-        <v>14.36</v>
+        <v>14.32</v>
       </c>
       <c r="F7" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="G7" t="n">
-        <v>15.86</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50947</v>
+        <v>51297</v>
       </c>
       <c r="C8" t="n">
-        <v>3880</v>
+        <v>3896</v>
       </c>
       <c r="D8" t="n">
         <v>627</v>
       </c>
       <c r="E8" t="n">
-        <v>9.02</v>
+        <v>8.99</v>
       </c>
       <c r="F8" t="n">
-        <v>7.52</v>
+        <v>7.49</v>
       </c>
       <c r="G8" t="n">
-        <v>24.43</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33456</v>
+        <v>33621</v>
       </c>
       <c r="C9" t="n">
-        <v>4322</v>
+        <v>4329</v>
       </c>
       <c r="D9" t="n">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="E9" t="n">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="F9" t="n">
-        <v>8.369999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="G9" t="n">
-        <v>51.73</v>
+        <v>51.77</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324072</v>
+        <v>327212</v>
       </c>
       <c r="C2" t="n">
-        <v>26952</v>
+        <v>27182</v>
       </c>
       <c r="D2" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E2" t="n">
-        <v>57.39</v>
+        <v>57.36</v>
       </c>
       <c r="F2" t="n">
-        <v>52.22</v>
+        <v>52.24</v>
       </c>
       <c r="G2" t="n">
         <v>48.77</v>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229032</v>
+        <v>231625</v>
       </c>
       <c r="C3" t="n">
-        <v>23749</v>
+        <v>23942</v>
       </c>
       <c r="D3" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E3" t="n">
-        <v>40.56</v>
+        <v>40.61</v>
       </c>
       <c r="F3" t="n">
         <v>46.01</v>
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11543</v>
+        <v>11572</v>
       </c>
       <c r="C4" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4767</v>
+        <v>4869</v>
       </c>
       <c r="C2" t="n">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="n">
         <v>1.43</v>
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49068</v>
+        <v>50565</v>
       </c>
       <c r="C3" t="n">
-        <v>6099</v>
+        <v>6202</v>
       </c>
       <c r="D3" t="n">
         <v>370</v>
       </c>
       <c r="E3" t="n">
-        <v>8.69</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>11.82</v>
+        <v>11.92</v>
       </c>
       <c r="G3" t="n">
-        <v>14.41</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76323</v>
+        <v>79031</v>
       </c>
       <c r="C4" t="n">
-        <v>8989</v>
+        <v>9148</v>
       </c>
       <c r="D4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E4" t="n">
-        <v>13.52</v>
+        <v>13.86</v>
       </c>
       <c r="F4" t="n">
-        <v>17.42</v>
+        <v>17.58</v>
       </c>
       <c r="G4" t="n">
-        <v>13.13</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110803</v>
+        <v>100722</v>
       </c>
       <c r="C5" t="n">
-        <v>12292</v>
+        <v>11775</v>
       </c>
       <c r="D5" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E5" t="n">
-        <v>19.62</v>
+        <v>17.66</v>
       </c>
       <c r="F5" t="n">
-        <v>23.82</v>
+        <v>22.63</v>
       </c>
       <c r="G5" t="n">
-        <v>7.21</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323686</v>
+        <v>335222</v>
       </c>
       <c r="C6" t="n">
-        <v>23494</v>
+        <v>24168</v>
       </c>
       <c r="D6" t="n">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="E6" t="n">
-        <v>57.33</v>
+        <v>58.77</v>
       </c>
       <c r="F6" t="n">
-        <v>45.52</v>
+        <v>46.44</v>
       </c>
       <c r="G6" t="n">
-        <v>64.73999999999999</v>
+        <v>64.97</v>
       </c>
     </row>
   </sheetData>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18617</v>
+        <v>18757</v>
       </c>
       <c r="C2" t="n">
-        <v>5805</v>
+        <v>5827</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="F2" t="n">
-        <v>11.25</v>
+        <v>11.2</v>
       </c>
       <c r="G2" t="n">
         <v>1.99</v>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>215148</v>
+        <v>218089</v>
       </c>
       <c r="C3" t="n">
-        <v>17255</v>
+        <v>17435</v>
       </c>
       <c r="D3" t="n">
         <v>1357</v>
       </c>
       <c r="E3" t="n">
-        <v>38.1</v>
+        <v>38.23</v>
       </c>
       <c r="F3" t="n">
-        <v>33.43</v>
+        <v>33.51</v>
       </c>
       <c r="G3" t="n">
-        <v>52.86</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330882</v>
+        <v>333563</v>
       </c>
       <c r="C4" t="n">
-        <v>28552</v>
+        <v>28775</v>
       </c>
       <c r="D4" t="n">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E4" t="n">
-        <v>58.6</v>
+        <v>58.48</v>
       </c>
       <c r="F4" t="n">
-        <v>55.32</v>
+        <v>55.3</v>
       </c>
       <c r="G4" t="n">
-        <v>45.15</v>
+        <v>45.19</v>
       </c>
     </row>
   </sheetData>
